--- a/武汉市国有企业退休人员社会化管理服务基本信息表精简.xlsx
+++ b/武汉市国有企业退休人员社会化管理服务基本信息表精简.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Shawn4everGitHub\retire_people_summary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF26F968-1A6E-498A-B56E-4F0D8FE60553}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB566DF0-2B7F-47A4-A848-3C67A3CBEA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4128" yWindow="0" windowWidth="12324" windowHeight="12024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="全民" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3691" uniqueCount="1153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3693" uniqueCount="1157">
   <si>
     <t xml:space="preserve">（□央企    □省企    □市企     □区企）  </t>
   </si>
@@ -3537,6 +3537,22 @@
   </si>
   <si>
     <t>15972138545</t>
+  </si>
+  <si>
+    <t>劳模</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊工种</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3548,7 +3564,7 @@
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
     <numFmt numFmtId="178" formatCode="yyyy\-mm"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3673,6 +3689,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3761,7 +3785,7 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3891,36 +3915,6 @@
     <xf numFmtId="178" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3934,6 +3928,39 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4214,8 +4241,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AX8"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" topLeftCell="AE1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="AU1" sqref="AU1:AU1048576"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="K1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -4237,7 +4264,7 @@
     <col min="22" max="22" width="8.88671875" style="28" customWidth="1"/>
     <col min="23" max="26" width="10" style="28" customWidth="1"/>
     <col min="27" max="27" width="10.5546875" style="28" customWidth="1"/>
-    <col min="28" max="28" width="14.6640625" style="55" customWidth="1"/>
+    <col min="28" max="28" width="14.6640625" style="45" customWidth="1"/>
     <col min="29" max="29" width="10" style="28" customWidth="1"/>
     <col min="30" max="30" width="11.77734375" style="28" customWidth="1"/>
     <col min="31" max="33" width="10" style="28" customWidth="1"/>
@@ -4268,10 +4295,10 @@
       <c r="D1" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="53" t="s">
+      <c r="E1" s="43" t="s">
         <v>1128</v>
       </c>
-      <c r="F1" s="53" t="s">
+      <c r="F1" s="43" t="s">
         <v>55</v>
       </c>
       <c r="G1" s="35" t="s">
@@ -4284,10 +4311,10 @@
       <c r="J1" s="36">
         <v>0</v>
       </c>
-      <c r="K1" s="53" t="s">
+      <c r="K1" s="43" t="s">
         <v>1136</v>
       </c>
-      <c r="L1" s="53" t="s">
+      <c r="L1" s="43" t="s">
         <v>1143</v>
       </c>
       <c r="M1" s="34" t="s">
@@ -4304,7 +4331,9 @@
       <c r="R1" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="36"/>
+      <c r="S1" s="58" t="s">
+        <v>1155</v>
+      </c>
       <c r="T1" s="36" t="s">
         <v>62</v>
       </c>
@@ -4319,7 +4348,7 @@
       <c r="AA1" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="AB1" s="54" t="s">
+      <c r="AB1" s="44" t="s">
         <v>1150</v>
       </c>
       <c r="AC1" s="36" t="s">
@@ -4334,32 +4363,32 @@
       <c r="AJ1" s="36"/>
       <c r="AK1" s="36"/>
       <c r="AL1" s="36"/>
-      <c r="AM1" s="56" t="s">
+      <c r="AM1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="AN1" s="56" t="s">
+      <c r="AN1" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AO1" s="56" t="s">
+      <c r="AO1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AP1" s="57" t="s">
+      <c r="AP1" s="47" t="s">
         <v>1150</v>
       </c>
-      <c r="AQ1" s="56"/>
-      <c r="AR1" s="56" t="s">
+      <c r="AQ1" s="46"/>
+      <c r="AR1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="AS1" s="56" t="s">
+      <c r="AS1" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="AT1" s="56" t="s">
+      <c r="AT1" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="AU1" s="57" t="s">
+      <c r="AU1" s="47" t="s">
         <v>1150</v>
       </c>
-      <c r="AV1" s="56"/>
+      <c r="AV1" s="46"/>
       <c r="AW1" s="36"/>
       <c r="AX1" s="36"/>
     </row>
@@ -4376,10 +4405,10 @@
       <c r="D2" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="53" t="s">
+      <c r="E2" s="43" t="s">
         <v>1129</v>
       </c>
-      <c r="F2" s="53" t="s">
+      <c r="F2" s="43" t="s">
         <v>70</v>
       </c>
       <c r="G2" s="35" t="s">
@@ -4392,10 +4421,10 @@
       <c r="J2" s="36">
         <v>0</v>
       </c>
-      <c r="K2" s="53" t="s">
+      <c r="K2" s="43" t="s">
         <v>1137</v>
       </c>
-      <c r="L2" s="53" t="s">
+      <c r="L2" s="43" t="s">
         <v>1144</v>
       </c>
       <c r="M2" s="34" t="s">
@@ -4409,10 +4438,12 @@
         <v>60</v>
       </c>
       <c r="Q2" s="36"/>
-      <c r="R2" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="S2" s="36"/>
+      <c r="R2" s="58" t="s">
+        <v>1154</v>
+      </c>
+      <c r="S2" s="58" t="s">
+        <v>1155</v>
+      </c>
       <c r="T2" s="36" t="s">
         <v>62</v>
       </c>
@@ -4427,7 +4458,7 @@
       <c r="AA2" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="AB2" s="54" t="s">
+      <c r="AB2" s="44" t="s">
         <v>72</v>
       </c>
       <c r="AC2" s="36" t="s">
@@ -4451,7 +4482,7 @@
       <c r="AO2" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AP2" s="54" t="s">
+      <c r="AP2" s="44" t="s">
         <v>72</v>
       </c>
       <c r="AQ2" s="36"/>
@@ -4476,10 +4507,10 @@
       <c r="D3" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="53" t="s">
+      <c r="E3" s="43" t="s">
         <v>1130</v>
       </c>
-      <c r="F3" s="53" t="s">
+      <c r="F3" s="43" t="s">
         <v>76</v>
       </c>
       <c r="G3" s="35" t="s">
@@ -4492,10 +4523,10 @@
       <c r="J3" s="36">
         <v>0</v>
       </c>
-      <c r="K3" s="53" t="s">
+      <c r="K3" s="43" t="s">
         <v>1138</v>
       </c>
-      <c r="L3" s="53" t="s">
+      <c r="L3" s="43" t="s">
         <v>1144</v>
       </c>
       <c r="M3" s="34" t="s">
@@ -4512,7 +4543,9 @@
       <c r="R3" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="S3" s="36"/>
+      <c r="S3" s="58" t="s">
+        <v>1155</v>
+      </c>
       <c r="T3" s="36" t="s">
         <v>62</v>
       </c>
@@ -4527,7 +4560,7 @@
       <c r="AA3" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="AB3" s="54" t="s">
+      <c r="AB3" s="44" t="s">
         <v>77</v>
       </c>
       <c r="AC3" s="36" t="s">
@@ -4551,7 +4584,7 @@
       <c r="AO3" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AP3" s="54" t="s">
+      <c r="AP3" s="44" t="s">
         <v>1151</v>
       </c>
       <c r="AQ3" s="36"/>
@@ -4576,10 +4609,10 @@
       <c r="D4" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="43" t="s">
         <v>1131</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="43" t="s">
         <v>82</v>
       </c>
       <c r="G4" s="35" t="s">
@@ -4592,10 +4625,10 @@
       <c r="J4" s="36">
         <v>0</v>
       </c>
-      <c r="K4" s="53" t="s">
+      <c r="K4" s="43" t="s">
         <v>1139</v>
       </c>
-      <c r="L4" s="53" t="s">
+      <c r="L4" s="43" t="s">
         <v>1145</v>
       </c>
       <c r="M4" s="34" t="s">
@@ -4612,7 +4645,9 @@
       <c r="R4" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="S4" s="36"/>
+      <c r="S4" s="58" t="s">
+        <v>1155</v>
+      </c>
       <c r="T4" s="36" t="s">
         <v>62</v>
       </c>
@@ -4627,7 +4662,7 @@
       <c r="AA4" s="36">
         <v>0</v>
       </c>
-      <c r="AB4" s="54" t="s">
+      <c r="AB4" s="44" t="s">
         <v>83</v>
       </c>
       <c r="AC4" s="36">
@@ -4670,10 +4705,10 @@
       <c r="D5" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="43" t="s">
         <v>1132</v>
       </c>
-      <c r="F5" s="53" t="s">
+      <c r="F5" s="43" t="s">
         <v>86</v>
       </c>
       <c r="G5" s="35" t="s">
@@ -4686,10 +4721,10 @@
       <c r="J5" s="36">
         <v>0</v>
       </c>
-      <c r="K5" s="53" t="s">
+      <c r="K5" s="43" t="s">
         <v>1140</v>
       </c>
-      <c r="L5" s="53" t="s">
+      <c r="L5" s="43" t="s">
         <v>1146</v>
       </c>
       <c r="M5" s="34" t="s">
@@ -4703,10 +4738,12 @@
         <v>60</v>
       </c>
       <c r="Q5" s="36"/>
-      <c r="R5" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="S5" s="36"/>
+      <c r="R5" s="58" t="s">
+        <v>1153</v>
+      </c>
+      <c r="S5" s="58" t="s">
+        <v>1155</v>
+      </c>
       <c r="T5" s="36" t="s">
         <v>62</v>
       </c>
@@ -4721,7 +4758,7 @@
       <c r="AA5" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="AB5" s="54" t="s">
+      <c r="AB5" s="44" t="s">
         <v>88</v>
       </c>
       <c r="AC5" s="36" t="s">
@@ -4745,7 +4782,7 @@
       <c r="AO5" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AP5" s="54" t="s">
+      <c r="AP5" s="44" t="s">
         <v>88</v>
       </c>
       <c r="AQ5" s="36"/>
@@ -4770,10 +4807,10 @@
       <c r="D6" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="43" t="s">
         <v>1133</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="43" t="s">
         <v>93</v>
       </c>
       <c r="G6" s="35" t="s">
@@ -4786,10 +4823,10 @@
       <c r="J6" s="36">
         <v>0</v>
       </c>
-      <c r="K6" s="53" t="s">
+      <c r="K6" s="43" t="s">
         <v>1141</v>
       </c>
-      <c r="L6" s="53" t="s">
+      <c r="L6" s="43" t="s">
         <v>1147</v>
       </c>
       <c r="M6" s="34" t="s">
@@ -4806,7 +4843,9 @@
       <c r="R6" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="S6" s="36"/>
+      <c r="S6" s="58" t="s">
+        <v>1155</v>
+      </c>
       <c r="T6" s="36" t="s">
         <v>62</v>
       </c>
@@ -4821,7 +4860,7 @@
       <c r="AA6" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="AB6" s="54" t="s">
+      <c r="AB6" s="44" t="s">
         <v>95</v>
       </c>
       <c r="AC6" s="36" t="s">
@@ -4845,7 +4884,7 @@
       <c r="AO6" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="AP6" s="54" t="s">
+      <c r="AP6" s="44" t="s">
         <v>1152</v>
       </c>
       <c r="AQ6" s="36"/>
@@ -4870,10 +4909,10 @@
       <c r="D7" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="43" t="s">
         <v>1134</v>
       </c>
-      <c r="F7" s="53" t="s">
+      <c r="F7" s="43" t="s">
         <v>100</v>
       </c>
       <c r="G7" s="35" t="s">
@@ -4886,10 +4925,10 @@
       <c r="J7" s="36">
         <v>0</v>
       </c>
-      <c r="K7" s="53" t="s">
+      <c r="K7" s="43" t="s">
         <v>1142</v>
       </c>
-      <c r="L7" s="53" t="s">
+      <c r="L7" s="43" t="s">
         <v>1148</v>
       </c>
       <c r="M7" s="37" t="s">
@@ -4906,7 +4945,9 @@
       <c r="R7" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="S7" s="36"/>
+      <c r="S7" s="58" t="s">
+        <v>1156</v>
+      </c>
       <c r="T7" s="36" t="s">
         <v>62</v>
       </c>
@@ -4921,7 +4962,7 @@
       <c r="AA7" s="36">
         <v>0</v>
       </c>
-      <c r="AB7" s="54"/>
+      <c r="AB7" s="44"/>
       <c r="AC7" s="36">
         <v>0</v>
       </c>
@@ -4962,10 +5003,10 @@
       <c r="D8" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="43" t="s">
         <v>1135</v>
       </c>
-      <c r="F8" s="53" t="s">
+      <c r="F8" s="43" t="s">
         <v>103</v>
       </c>
       <c r="G8" s="35" t="s">
@@ -4978,10 +5019,10 @@
       <c r="J8" s="36">
         <v>0</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="K8" s="43" t="s">
         <v>1141</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="43" t="s">
         <v>1149</v>
       </c>
       <c r="M8" s="34" t="s">
@@ -4998,7 +5039,9 @@
       <c r="R8" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="S8" s="36"/>
+      <c r="S8" s="58" t="s">
+        <v>1156</v>
+      </c>
       <c r="T8" s="36" t="s">
         <v>62</v>
       </c>
@@ -5013,7 +5056,7 @@
       <c r="AA8" s="36">
         <v>0</v>
       </c>
-      <c r="AB8" s="54" t="s">
+      <c r="AB8" s="44" t="s">
         <v>104</v>
       </c>
       <c r="AC8" s="36">
@@ -5053,9 +5096,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AX1:AX1048576" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>"户口所在地,常住地"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
-      <formula1>"是,否"</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W1:W1048576" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"一级,二级,三级,四级,五级,六级,七级,八级,九级,十级"</formula1>
     </dataValidation>
@@ -5064,6 +5104,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AW1:AW1048576" xr:uid="{00000000-0002-0000-0000-000006000000}">
       <formula1>"户口所在地,常住地,企业所在地"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S1:S1048576" xr:uid="{00000000-0002-0000-0000-000003000000}">
+      <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5108,137 +5151,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="28.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="54" t="s">
         <v>289</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
-      <c r="P1" s="43"/>
-      <c r="Q1" s="43"/>
-      <c r="R1" s="43"/>
-      <c r="S1" s="43"/>
-      <c r="T1" s="43"/>
-      <c r="U1" s="43"/>
-      <c r="V1" s="43"/>
-      <c r="W1" s="43"/>
-      <c r="X1" s="43"/>
-      <c r="Y1" s="43"/>
-      <c r="Z1" s="43"/>
-      <c r="AA1" s="43"/>
-      <c r="AB1" s="43"/>
-      <c r="AC1" s="43"/>
-      <c r="AD1" s="43"/>
-      <c r="AE1" s="43"/>
-      <c r="AF1" s="43"/>
-      <c r="AG1" s="43"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="43"/>
-      <c r="AO1" s="43"/>
-      <c r="AP1" s="43"/>
-      <c r="AQ1" s="43"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="43"/>
-      <c r="AT1" s="43"/>
-      <c r="AU1" s="43"/>
-      <c r="AV1" s="43"/>
-      <c r="AW1" s="43"/>
-      <c r="AX1" s="43"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="54"/>
+      <c r="O1" s="54"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+      <c r="R1" s="54"/>
+      <c r="S1" s="54"/>
+      <c r="T1" s="54"/>
+      <c r="U1" s="54"/>
+      <c r="V1" s="54"/>
+      <c r="W1" s="54"/>
+      <c r="X1" s="54"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
+      <c r="AB1" s="54"/>
+      <c r="AC1" s="54"/>
+      <c r="AD1" s="54"/>
+      <c r="AE1" s="54"/>
+      <c r="AF1" s="54"/>
+      <c r="AG1" s="54"/>
+      <c r="AH1" s="54"/>
+      <c r="AI1" s="54"/>
+      <c r="AJ1" s="54"/>
+      <c r="AK1" s="54"/>
+      <c r="AL1" s="54"/>
+      <c r="AM1" s="54"/>
+      <c r="AN1" s="54"/>
+      <c r="AO1" s="54"/>
+      <c r="AP1" s="54"/>
+      <c r="AQ1" s="54"/>
+      <c r="AR1" s="54"/>
+      <c r="AS1" s="54"/>
+      <c r="AT1" s="54"/>
+      <c r="AU1" s="54"/>
+      <c r="AV1" s="54"/>
+      <c r="AW1" s="54"/>
+      <c r="AX1" s="54"/>
     </row>
     <row r="2" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45"/>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="45"/>
-      <c r="AG2" s="45"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="45"/>
-      <c r="AO2" s="45"/>
-      <c r="AP2" s="45"/>
-      <c r="AQ2" s="45"/>
-      <c r="AR2" s="45"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="45"/>
-      <c r="AU2" s="45"/>
-      <c r="AV2" s="45"/>
-      <c r="AW2" s="45"/>
-      <c r="AX2" s="45"/>
+      <c r="A2" s="56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="56"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="57"/>
+      <c r="L2" s="57"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
     </row>
     <row r="3" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="46"/>
-      <c r="L3" s="46" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
+      <c r="M3" s="56"/>
+      <c r="N3" s="56"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
@@ -5274,69 +5317,69 @@
       <c r="AX3" s="14"/>
     </row>
     <row r="4" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="A4" s="49" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
-      <c r="J4" s="47"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="47"/>
-      <c r="N4" s="47"/>
-      <c r="O4" s="47"/>
-      <c r="P4" s="47"/>
-      <c r="Q4" s="47"/>
-      <c r="R4" s="47"/>
-      <c r="S4" s="47" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="52"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="47"/>
-      <c r="Y4" s="47"/>
-      <c r="Z4" s="47" t="s">
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="AA4" s="47"/>
-      <c r="AB4" s="47"/>
-      <c r="AC4" s="47"/>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47"/>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
-      <c r="AH4" s="47"/>
-      <c r="AI4" s="47"/>
-      <c r="AJ4" s="47"/>
-      <c r="AK4" s="47"/>
-      <c r="AL4" s="47"/>
-      <c r="AM4" s="47"/>
-      <c r="AN4" s="47"/>
-      <c r="AO4" s="47"/>
-      <c r="AP4" s="47"/>
-      <c r="AQ4" s="47"/>
-      <c r="AR4" s="47"/>
-      <c r="AS4" s="47"/>
-      <c r="AT4" s="47"/>
-      <c r="AU4" s="47"/>
-      <c r="AV4" s="47"/>
-      <c r="AW4" s="47" t="s">
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="AX4" s="47"/>
+      <c r="AX4" s="52"/>
     </row>
     <row r="5" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="48" t="s">
         <v>9</v>
       </c>
@@ -5346,7 +5389,7 @@
       <c r="D5" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="49" t="s">
+      <c r="E5" s="51" t="s">
         <v>12</v>
       </c>
       <c r="F5" s="48" t="s">
@@ -5364,10 +5407,10 @@
       <c r="J5" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="49" t="s">
+      <c r="K5" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="L5" s="49" t="s">
+      <c r="L5" s="51" t="s">
         <v>19</v>
       </c>
       <c r="M5" s="48" t="s">
@@ -5430,18 +5473,18 @@
       <c r="AJ5" s="48"/>
       <c r="AK5" s="48"/>
       <c r="AL5" s="48"/>
-      <c r="AM5" s="47" t="s">
+      <c r="AM5" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="AN5" s="47"/>
-      <c r="AO5" s="47"/>
-      <c r="AP5" s="47"/>
-      <c r="AQ5" s="47"/>
-      <c r="AR5" s="47"/>
-      <c r="AS5" s="47"/>
-      <c r="AT5" s="47"/>
-      <c r="AU5" s="47"/>
-      <c r="AV5" s="47"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="52"/>
+      <c r="AV5" s="52"/>
       <c r="AW5" s="48" t="s">
         <v>38</v>
       </c>
@@ -5450,18 +5493,18 @@
       </c>
     </row>
     <row r="6" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="52"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="48"/>
       <c r="G6" s="48"/>
       <c r="H6" s="48"/>
       <c r="I6" s="48"/>
       <c r="J6" s="48"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
       <c r="M6" s="48"/>
       <c r="N6" s="48"/>
       <c r="O6" s="48"/>
@@ -5506,18 +5549,18 @@
       <c r="AX6" s="48"/>
     </row>
     <row r="7" spans="1:50" ht="87" x14ac:dyDescent="0.25">
-      <c r="A7" s="52"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="48"/>
       <c r="G7" s="48"/>
       <c r="H7" s="48"/>
       <c r="I7" s="48"/>
       <c r="J7" s="48"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
       <c r="M7" s="48"/>
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
@@ -5606,7 +5649,7 @@
       <c r="AX7" s="48"/>
     </row>
     <row r="8" spans="1:50" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="52"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="3">
         <v>1</v>
       </c>
@@ -27565,28 +27608,11 @@
   </sheetData>
   <autoFilter ref="A1:AX226" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="43">
-    <mergeCell ref="AM6:AQ6"/>
-    <mergeCell ref="AR6:AV6"/>
-    <mergeCell ref="T5:U6"/>
-    <mergeCell ref="AA5:AB6"/>
-    <mergeCell ref="AC5:AD6"/>
-    <mergeCell ref="AE5:AF6"/>
-    <mergeCell ref="AG5:AL6"/>
-    <mergeCell ref="A4:A8"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="K5:K7"/>
-    <mergeCell ref="L5:L7"/>
-    <mergeCell ref="M5:M7"/>
-    <mergeCell ref="N5:N7"/>
-    <mergeCell ref="B4:R4"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
-    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="A1:AX1"/>
+    <mergeCell ref="A2:AX2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:Q3"/>
     <mergeCell ref="S4:Y4"/>
     <mergeCell ref="Z4:AV4"/>
     <mergeCell ref="AW4:AX4"/>
@@ -27603,11 +27629,28 @@
     <mergeCell ref="Z5:Z7"/>
     <mergeCell ref="AW5:AW7"/>
     <mergeCell ref="AX5:AX7"/>
-    <mergeCell ref="A1:AX1"/>
-    <mergeCell ref="A2:AX2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:Q3"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="L5:L7"/>
+    <mergeCell ref="M5:M7"/>
+    <mergeCell ref="N5:N7"/>
+    <mergeCell ref="B4:R4"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="AM6:AQ6"/>
+    <mergeCell ref="AR6:AV6"/>
+    <mergeCell ref="T5:U6"/>
+    <mergeCell ref="AA5:AB6"/>
+    <mergeCell ref="AC5:AD6"/>
+    <mergeCell ref="AE5:AF6"/>
+    <mergeCell ref="AG5:AL6"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <dataValidations count="4">
